--- a/CSV/县列表.xlsx
+++ b/CSV/县列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -715,6 +715,7 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,7 +1086,7 @@
   <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B226"/>
     </sheetView>
   </sheetViews>
